--- a/public/payroll.xlsx
+++ b/public/payroll.xlsx
@@ -29,7 +29,7 @@
     <t>Jesica</t>
   </si>
   <si>
-    <t>10,000</t>
+    <t>214,000</t>
   </si>
   <si>
     <t>testing</t>
